--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Cluster</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cluster_Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,7 +499,12 @@
         <v>63.778833</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Erratic Spikes</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -521,7 +531,12 @@
         <v>69.5942</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -550,6 +565,11 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,6 +597,11 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -602,7 +627,12 @@
         <v>101.93146389</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -631,6 +661,11 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -658,6 +693,11 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -683,7 +723,12 @@
         <v>56.307969</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -712,6 +757,11 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -737,7 +787,12 @@
         <v>3.710796</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Erratic Spikes</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -764,7 +819,12 @@
         <v>43.97990000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -791,7 +851,12 @@
         <v>84.63330000000002</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -818,7 +883,12 @@
         <v>3.799796</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Erratic Spikes</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -847,6 +917,11 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -873,6 +948,11 @@
       </c>
       <c r="G16" t="n">
         <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,6 @@
           <t>Cluster</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cluster_Name</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -501,11 +496,6 @@
       <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Erratic Spikes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -533,11 +523,6 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Stable Behavior</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -565,11 +550,6 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Stable Behavior</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -597,11 +577,6 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Stable Behavior</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -629,11 +604,6 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Stable Behavior</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -661,11 +631,6 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>High Variance</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -693,11 +658,6 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>High Variance</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -725,11 +685,6 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Stable Behavior</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -757,11 +712,6 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>High Variance</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -789,11 +739,6 @@
       <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Erratic Spikes</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -821,11 +766,6 @@
       <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>High Variance</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -853,11 +793,6 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Stable Behavior</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -885,11 +820,6 @@
       <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Erratic Spikes</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -917,11 +847,6 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>High Variance</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -948,11 +873,6 @@
       </c>
       <c r="G16" t="n">
         <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Stable Behavior</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Cluster</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cluster_Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +501,11 @@
       <c r="G2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Erratic Spikes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,6 +533,11 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -550,6 +565,11 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,6 +597,11 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -604,6 +629,11 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -631,6 +661,11 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -658,6 +693,11 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -685,6 +725,11 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -712,6 +757,11 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -739,6 +789,11 @@
       <c r="G11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Erratic Spikes</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -766,6 +821,11 @@
       <c r="G12" t="n">
         <v>1</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -793,6 +853,11 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -820,6 +885,11 @@
       <c r="G14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Erratic Spikes</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -847,6 +917,11 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>High Variance</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -873,6 +948,11 @@
       </c>
       <c r="G16" t="n">
         <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Stable Behavior</t>
+        </is>
       </c>
     </row>
   </sheetData>
